--- a/Input/Cigna_Close_Care/addon10.xlsx
+++ b/Input/Cigna_Close_Care/addon10.xlsx
@@ -2594,7 +2594,7 @@
         <v>Wellness Addon</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>Covered with sub-limits</v>
+        <v>Children-Child well being tests covered up to USD 1,000 Adults- Physical examinations covered up to USD 100 Cancer Screening covered up to USD 400</v>
       </c>
       <c r="E3" s="1" t="str">
         <v>FALSE</v>
